--- a/Course Content/BFS-Schedule IIT-Graduates-Schedule-End-End-Ver1.0.xlsx
+++ b/Course Content/BFS-Schedule IIT-Graduates-Schedule-End-End-Ver1.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BFS-Discussion\ScheduleReworked\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tranings\CTS\JAVA-FSD-020\Course Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="BFS-Daily-Schedule" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BFS-Daily-Schedule'!$A$1:$J$450</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1032,7 +1032,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1998,28 +1998,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J450"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E402"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="88.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="116.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="88.85546875" style="1"/>
+    <col min="9" max="9" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="88.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>4</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>4</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>4</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>4</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>5</v>
       </c>
@@ -2531,7 +2532,7 @@
       <c r="I19" s="37"/>
       <c r="J19" s="37"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>6</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>6</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>6</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>7</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
         <v>7</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>7</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>7</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>7</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>8</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>8</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>8</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>8</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>8</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>8</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>9</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>9</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>9</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>9</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>9</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>10</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>10</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>10</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>10</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>10</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>10</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>10</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>10</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>10</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>11</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>11</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>11</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>11</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>11</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>11</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>11</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>11</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>11</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>12</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>12</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>12</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>12</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>12</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>12</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>12</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>12</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>12</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>13</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>13</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>13</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>13</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30">
         <v>13</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>13</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>13</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>13</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>13</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="34">
         <v>14</v>
       </c>
@@ -4037,7 +4038,7 @@
       <c r="I75" s="37"/>
       <c r="J75" s="37"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>15</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>15</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>15</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>15</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>15</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>15</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>15</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>15</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>16</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>16</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>16</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>16</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>16</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>17</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>17</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>17</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="24">
         <v>17</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>17</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>17</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>18</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>18</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>18</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>18</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>18</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>18</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>18</v>
       </c>
@@ -4739,7 +4740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>18</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>19</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>19</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>19</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>19</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="30">
         <v>19</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>19</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>19</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>19</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>19</v>
       </c>
@@ -5009,7 +5010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>20</v>
       </c>
@@ -5036,7 +5037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>20</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>20</v>
       </c>
@@ -5090,7 +5091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>20</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>20</v>
       </c>
@@ -5144,7 +5145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>20</v>
       </c>
@@ -5171,7 +5172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <v>20</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="24">
         <v>20</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>20</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>21</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>21</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>21</v>
       </c>
@@ -5333,7 +5334,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>21</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>21</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>21</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>21</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>21</v>
       </c>
@@ -5468,7 +5469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>22</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>22</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>22</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>22</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>22</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>22</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>22</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>22</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>23</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>23</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>23</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>23</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>23</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>23</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>23</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>23</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="24">
         <v>23</v>
       </c>
@@ -5927,7 +5928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>24</v>
       </c>
@@ -5954,7 +5955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>24</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>24</v>
       </c>
@@ -6008,7 +6009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>24</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>24</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>24</v>
       </c>
@@ -6089,7 +6090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>24</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>24</v>
       </c>
@@ -6143,7 +6144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>25</v>
       </c>
@@ -6170,7 +6171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>25</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>25</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>25</v>
       </c>
@@ -6251,7 +6252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="30">
         <v>25</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>25</v>
       </c>
@@ -6305,7 +6306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>25</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>25</v>
       </c>
@@ -6359,7 +6360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>25</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>26</v>
       </c>
@@ -6413,7 +6414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>26</v>
       </c>
@@ -6440,7 +6441,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>26</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>26</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>26</v>
       </c>
@@ -6521,7 +6522,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>26</v>
       </c>
@@ -6548,7 +6549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>26</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="24">
         <v>26</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>27</v>
       </c>
@@ -6629,7 +6630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>27</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>27</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>27</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>27</v>
       </c>
@@ -6737,7 +6738,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>27</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>27</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>27</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>28</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>28</v>
       </c>
@@ -6872,7 +6873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>28</v>
       </c>
@@ -6899,7 +6900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>28</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>28</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>28</v>
       </c>
@@ -6980,7 +6981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>28</v>
       </c>
@@ -7007,7 +7008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>28</v>
       </c>
@@ -7034,7 +7035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>29</v>
       </c>
@@ -7061,7 +7062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>29</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
         <v>29</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="16">
         <v>29</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="16">
         <v>29</v>
       </c>
@@ -7169,7 +7170,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>29</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>29</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="24">
         <v>29</v>
       </c>
@@ -7250,7 +7251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>30</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>30</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>30</v>
       </c>
@@ -7331,7 +7332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>30</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>30</v>
       </c>
@@ -7385,7 +7386,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>30</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>30</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="16">
         <v>30</v>
       </c>
@@ -7466,7 +7467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>31</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>31</v>
       </c>
@@ -7520,7 +7521,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>31</v>
       </c>
@@ -7547,7 +7548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>31</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="30">
         <v>31</v>
       </c>
@@ -7601,7 +7602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>31</v>
       </c>
@@ -7628,7 +7629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="16">
         <v>31</v>
       </c>
@@ -7655,7 +7656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="16">
         <v>31</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>31</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <v>32</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="39">
         <v>32</v>
       </c>
@@ -7763,7 +7764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>32</v>
       </c>
@@ -7790,7 +7791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="12">
         <v>32</v>
       </c>
@@ -7817,7 +7818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="24">
         <v>32</v>
       </c>
@@ -7844,7 +7845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>32</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>33</v>
       </c>
@@ -7898,7 +7899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="16">
         <v>33</v>
       </c>
@@ -7925,7 +7926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>33</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>33</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>33</v>
       </c>
@@ -8006,7 +8007,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="16">
         <v>33</v>
       </c>
@@ -8033,7 +8034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>33</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>33</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>34</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>34</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>34</v>
       </c>
@@ -8168,7 +8169,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>34</v>
       </c>
@@ -8195,7 +8196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>34</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>34</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>34</v>
       </c>
@@ -8276,7 +8277,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>34</v>
       </c>
@@ -8303,7 +8304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>35</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>35</v>
       </c>
@@ -8357,7 +8358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>35</v>
       </c>
@@ -8384,7 +8385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>35</v>
       </c>
@@ -8411,7 +8412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>35</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>35</v>
       </c>
@@ -8465,7 +8466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>35</v>
       </c>
@@ -8492,7 +8493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="24">
         <v>35</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>36</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>36</v>
       </c>
@@ -8573,7 +8574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>36</v>
       </c>
@@ -8600,7 +8601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>36</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>36</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="39">
         <v>36</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>37</v>
       </c>
@@ -8708,7 +8709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>37</v>
       </c>
@@ -8735,7 +8736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="30">
         <v>37</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>37</v>
       </c>
@@ -8789,7 +8790,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>37</v>
       </c>
@@ -8816,7 +8817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>38</v>
       </c>
@@ -8843,7 +8844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>38</v>
       </c>
@@ -8870,7 +8871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>38</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>38</v>
       </c>
@@ -8924,7 +8925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="24">
         <v>38</v>
       </c>
@@ -8951,7 +8952,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>39</v>
       </c>
@@ -8978,7 +8979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>39</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>39</v>
       </c>
@@ -9032,7 +9033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>39</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>39</v>
       </c>
@@ -9086,7 +9087,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>39</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>39</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>39</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>40</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="16">
         <v>40</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>40</v>
       </c>
@@ -9248,7 +9249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>40</v>
       </c>
@@ -9275,7 +9276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>40</v>
       </c>
@@ -9302,7 +9303,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>40</v>
       </c>
@@ -9329,7 +9330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="16">
         <v>40</v>
       </c>
@@ -9356,7 +9357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="16">
         <v>40</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="16">
         <v>41</v>
       </c>
@@ -9410,7 +9411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="16">
         <v>41</v>
       </c>
@@ -9437,7 +9438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>41</v>
       </c>
@@ -9464,7 +9465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>41</v>
       </c>
@@ -9491,7 +9492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="16">
         <v>41</v>
       </c>
@@ -9518,7 +9519,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="16">
         <v>41</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>41</v>
       </c>
@@ -9572,7 +9573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>41</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="24">
         <v>41</v>
       </c>
@@ -9626,7 +9627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="16">
         <v>42</v>
       </c>
@@ -9653,7 +9654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="16">
         <v>42</v>
       </c>
@@ -9680,7 +9681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>42</v>
       </c>
@@ -9707,7 +9708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>42</v>
       </c>
@@ -9734,7 +9735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>42</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>42</v>
       </c>
@@ -9788,7 +9789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>42</v>
       </c>
@@ -9815,7 +9816,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>42</v>
       </c>
@@ -9842,7 +9843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="16">
         <v>43</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="16">
         <v>43</v>
       </c>
@@ -9896,7 +9897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="16">
         <v>43</v>
       </c>
@@ -9923,7 +9924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="16">
         <v>43</v>
       </c>
@@ -9950,7 +9951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="30">
         <v>43</v>
       </c>
@@ -9977,7 +9978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>43</v>
       </c>
@@ -10004,7 +10005,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="12">
         <v>43</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>43</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="16">
         <v>44</v>
       </c>
@@ -10085,7 +10086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <v>44</v>
       </c>
@@ -10112,7 +10113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>44</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>44</v>
       </c>
@@ -10166,7 +10167,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>44</v>
       </c>
@@ -10193,7 +10194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="24">
         <v>44</v>
       </c>
@@ -10220,7 +10221,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="16">
         <v>45</v>
       </c>
@@ -10247,7 +10248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="16">
         <v>45</v>
       </c>
@@ -10274,7 +10275,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="16">
         <v>45</v>
       </c>
@@ -10301,7 +10302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="16">
         <v>45</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="16">
         <v>45</v>
       </c>
@@ -10355,7 +10356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="34">
         <v>46</v>
       </c>
@@ -10376,7 +10377,7 @@
       <c r="I310" s="37"/>
       <c r="J310" s="37"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>47</v>
       </c>
@@ -10403,7 +10404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>47</v>
       </c>
@@ -10430,7 +10431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>47</v>
       </c>
@@ -10457,7 +10458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="24">
         <v>47</v>
       </c>
@@ -10484,7 +10485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>48</v>
       </c>
@@ -10511,7 +10512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>48</v>
       </c>
@@ -10538,7 +10539,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>48</v>
       </c>
@@ -10565,7 +10566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>48</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>49</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="30">
         <v>49</v>
       </c>
@@ -10646,7 +10647,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>49</v>
       </c>
@@ -10673,7 +10674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>49</v>
       </c>
@@ -10700,7 +10701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>50</v>
       </c>
@@ -10727,7 +10728,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>50</v>
       </c>
@@ -10754,7 +10755,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>50</v>
       </c>
@@ -10781,7 +10782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="24">
         <v>50</v>
       </c>
@@ -10808,7 +10809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>51</v>
       </c>
@@ -10835,7 +10836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>51</v>
       </c>
@@ -10862,7 +10863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>51</v>
       </c>
@@ -10889,7 +10890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>52</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="16">
         <v>52</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>52</v>
       </c>
@@ -10970,7 +10971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="16">
         <v>52</v>
       </c>
@@ -10997,7 +10998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>53</v>
       </c>
@@ -11024,7 +11025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>53</v>
       </c>
@@ -11051,7 +11052,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="16">
         <v>53</v>
       </c>
@@ -11078,7 +11079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="24">
         <v>53</v>
       </c>
@@ -11105,7 +11106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>54</v>
       </c>
@@ -11132,7 +11133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>54</v>
       </c>
@@ -11159,7 +11160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="16">
         <v>54</v>
       </c>
@@ -11186,7 +11187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="16">
         <v>54</v>
       </c>
@@ -11213,7 +11214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>54</v>
       </c>
@@ -11240,7 +11241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="16">
         <v>55</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="30">
         <v>55</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>55</v>
       </c>
@@ -11321,7 +11322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>55</v>
       </c>
@@ -11348,7 +11349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="16">
         <v>56</v>
       </c>
@@ -11375,7 +11376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <v>56</v>
       </c>
@@ -11402,7 +11403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>56</v>
       </c>
@@ -11429,7 +11430,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="16">
         <v>56</v>
       </c>
@@ -11456,7 +11457,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>56</v>
       </c>
@@ -11483,7 +11484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="24">
         <v>56</v>
       </c>
@@ -11510,7 +11511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="16">
         <v>57</v>
       </c>
@@ -11537,7 +11538,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>57</v>
       </c>
@@ -11564,7 +11565,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="12">
         <v>57</v>
       </c>
@@ -11591,7 +11592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>57</v>
       </c>
@@ -11618,7 +11619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>58</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>58</v>
       </c>
@@ -11672,7 +11673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>58</v>
       </c>
@@ -11699,7 +11700,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>58</v>
       </c>
@@ -11726,7 +11727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>59</v>
       </c>
@@ -11753,7 +11754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>59</v>
       </c>
@@ -11780,7 +11781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>59</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>59</v>
       </c>
@@ -11834,7 +11835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>59</v>
       </c>
@@ -11861,7 +11862,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="24">
         <v>59</v>
       </c>
@@ -11888,7 +11889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>61</v>
       </c>
@@ -11915,7 +11916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="30">
         <v>61</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>61</v>
       </c>
@@ -11969,7 +11970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>61</v>
       </c>
@@ -11996,7 +11997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="34">
         <v>60</v>
       </c>
@@ -12017,7 +12018,7 @@
       <c r="I371" s="37"/>
       <c r="J371" s="37"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>62</v>
       </c>
@@ -12044,7 +12045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>62</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>62</v>
       </c>
@@ -12098,7 +12099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>62</v>
       </c>
@@ -12125,7 +12126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>62</v>
       </c>
@@ -12152,7 +12153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="24">
         <v>62</v>
       </c>
@@ -12179,7 +12180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>63</v>
       </c>
@@ -12206,7 +12207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>63</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>63</v>
       </c>
@@ -12260,7 +12261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="16">
         <v>64</v>
       </c>
@@ -12287,7 +12288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>64</v>
       </c>
@@ -12314,7 +12315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>64</v>
       </c>
@@ -12341,7 +12342,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="16">
         <v>64</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>64</v>
       </c>
@@ -12395,7 +12396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="16">
         <v>65</v>
       </c>
@@ -12422,7 +12423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>65</v>
       </c>
@@ -12447,7 +12448,7 @@
       <c r="I387" s="17"/>
       <c r="J387" s="17"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>65</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="24">
         <v>65</v>
       </c>
@@ -12501,7 +12502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="39">
         <v>65</v>
       </c>
@@ -12528,7 +12529,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="12">
         <v>66</v>
       </c>
@@ -12555,7 +12556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>66</v>
       </c>
@@ -12582,7 +12583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>66</v>
       </c>
@@ -12609,7 +12610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>66</v>
       </c>
@@ -12636,7 +12637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>67</v>
       </c>
@@ -12663,7 +12664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="30">
         <v>67</v>
       </c>
@@ -12690,7 +12691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="16">
         <v>67</v>
       </c>
@@ -12717,7 +12718,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="16">
         <v>67</v>
       </c>
@@ -12744,7 +12745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>68</v>
       </c>
@@ -12771,7 +12772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="16">
         <v>68</v>
       </c>
@@ -12798,7 +12799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="16">
         <v>68</v>
       </c>
@@ -12825,7 +12826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <v>68</v>
       </c>
@@ -12852,7 +12853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="24">
         <v>68</v>
       </c>
@@ -12879,7 +12880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="16">
         <v>69</v>
       </c>
@@ -12906,7 +12907,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="16">
         <v>69</v>
       </c>
@@ -12933,7 +12934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="16">
         <v>69</v>
       </c>
@@ -12960,7 +12961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>70</v>
       </c>
@@ -12987,7 +12988,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>70</v>
       </c>
@@ -13014,7 +13015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>70</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>71</v>
       </c>
@@ -13068,7 +13069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>71</v>
       </c>
@@ -13095,7 +13096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>71</v>
       </c>
@@ -13122,7 +13123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="24">
         <v>71</v>
       </c>
@@ -13149,7 +13150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>72</v>
       </c>
@@ -13176,7 +13177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>72</v>
       </c>
@@ -13203,7 +13204,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>72</v>
       </c>
@@ -13230,7 +13231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>73</v>
       </c>
@@ -13257,7 +13258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="30">
         <v>73</v>
       </c>
@@ -13284,7 +13285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>73</v>
       </c>
@@ -13311,7 +13312,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>73</v>
       </c>
@@ -13338,7 +13339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>74</v>
       </c>
@@ -13365,7 +13366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
         <v>74</v>
       </c>
@@ -13392,7 +13393,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>74</v>
       </c>
@@ -13419,7 +13420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="24">
         <v>74</v>
       </c>
@@ -13446,7 +13447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>75</v>
       </c>
@@ -13473,7 +13474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>75</v>
       </c>
@@ -13500,7 +13501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
         <v>75</v>
       </c>
@@ -13527,7 +13528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="24">
         <v>76</v>
       </c>
@@ -13554,7 +13555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="16">
         <v>76</v>
       </c>
@@ -13581,7 +13582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="24">
         <v>76</v>
       </c>
@@ -13608,7 +13609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="24">
         <v>77</v>
       </c>
@@ -13635,7 +13636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="16">
         <v>77</v>
       </c>
@@ -13662,7 +13663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="16">
         <v>77</v>
       </c>
@@ -13689,7 +13690,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="16">
         <v>77</v>
       </c>
@@ -13716,7 +13717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="16">
         <v>78</v>
       </c>
@@ -13743,7 +13744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="16">
         <v>78</v>
       </c>
@@ -13770,7 +13771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="16">
         <v>78</v>
       </c>
@@ -13797,7 +13798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="16">
         <v>79</v>
       </c>
@@ -13824,7 +13825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="30">
         <v>73</v>
       </c>
@@ -13851,7 +13852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="16">
         <v>79</v>
       </c>
@@ -13878,7 +13879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="16">
         <v>79</v>
       </c>
@@ -13905,7 +13906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="16">
         <v>80</v>
       </c>
@@ -13932,7 +13933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="16">
         <v>80</v>
       </c>
@@ -13959,7 +13960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="16">
         <v>80</v>
       </c>
@@ -13986,7 +13987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="16">
         <v>81</v>
       </c>
@@ -14013,7 +14014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="16">
         <v>81</v>
       </c>
@@ -14040,7 +14041,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="16">
         <v>81</v>
       </c>
@@ -14067,7 +14068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="24">
         <v>82</v>
       </c>
@@ -14094,7 +14095,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="16">
         <v>82</v>
       </c>
@@ -14121,7 +14122,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="24">
         <v>82</v>
       </c>
@@ -14149,7 +14150,40 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J450"/>
+  <autoFilter ref="A1:J450">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="AJAX"/>
+        <filter val="Angular JS"/>
+        <filter val="App Servers"/>
+        <filter val="Build tools - Maven"/>
+        <filter val="Concepts of ORM &amp; Hibernate"/>
+        <filter val="Core Java"/>
+        <filter val="CSS"/>
+        <filter val="Dependency Injection - Spring"/>
+        <filter val="GIT"/>
+        <filter val="HTML"/>
+        <filter val="Industry Practice"/>
+        <filter val="Introduction to JEE"/>
+        <filter val="JavaScript"/>
+        <filter val="Jquery"/>
+        <filter val="JSON"/>
+        <filter val="JSP"/>
+        <filter val="JUnit"/>
+        <filter val="OOP"/>
+        <filter val="Programming Fundamentals Using Java"/>
+        <filter val="Relation Modelling"/>
+        <filter val="Servlet"/>
+        <filter val="SQL (Tables, Queries [DDL, DML], Joins)"/>
+        <filter val="SQL -Advanced"/>
+        <filter val="SVN"/>
+        <filter val="Technology Fundamentals-Basics of Networking"/>
+        <filter val="Technology Fundamentals-Client Server"/>
+        <filter val="Web Computing"/>
+        <filter val="XML"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
